--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA2A489-37E7-42E8-8810-C5B129812C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88640A1A-AD00-4193-B586-AFB1A98684C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{C370C103-1C4F-4B75-8655-8D738CFC9C97}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{E03F0FAB-2F10-48E2-AE86-DD96BD027B68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6E224E-F498-44C0-BC46-6641BB42440B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D67CC9-9238-498D-98D9-69FB6FE07B9D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88640A1A-AD00-4193-B586-AFB1A98684C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656941AC-D27A-4622-B237-7B1C91D7CE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{E03F0FAB-2F10-48E2-AE86-DD96BD027B68}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{E5B31989-A64B-492B-83D3-C074E5B99444}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D67CC9-9238-498D-98D9-69FB6FE07B9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05171998-D1F8-4901-BA51-5AC898D6B72E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
